--- a/informes/informe_madrid2.xlsx
+++ b/informes/informe_madrid2.xlsx
@@ -62,21 +62,21 @@
     <t xml:space="preserve">4</t>
   </si>
   <si>
+    <t xml:space="preserve">CARREFOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRETERA MADRID-LA CORUÑA KM. 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
     <t xml:space="preserve">GALP</t>
   </si>
   <si>
     <t xml:space="preserve">CTRA. N-VI km 21,700</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARREFOUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRETERA MADRID-LA CORUÑA KM. 22</t>
-  </si>
-  <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
@@ -116,55 +116,55 @@
     <t xml:space="preserve">11</t>
   </si>
   <si>
+    <t xml:space="preserve">CL MADRID, 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BP VALDONAIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRETERA AVD.DE LA INDUSTRIA KM. 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BP HUMANES - EL MOLINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVENIDA DE LAS FLORES, 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
     <t xml:space="preserve">REPSOL HUMANES</t>
   </si>
   <si>
     <t xml:space="preserve">AVENIDA LA INDUSTRIA, S/N</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL MADRID, 52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">CARRETERA AVENIDA  DE LA INDUSTRIA , 46 KM. 1,1</t>
   </si>
   <si>
-    <t xml:space="preserve">14</t>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BP LAS ROZAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL LAS CRUCES  S/N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
   </si>
   <si>
     <t xml:space="preserve">CARRETERA M-405 KM. 5,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BP HUMANES - EL MOLINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVENIDA DE LAS FLORES, 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BP VALDONAIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRETERA AVD.DE LA INDUSTRIA KM. 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BP LAS ROZAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL LAS CRUCES  S/N</t>
   </si>
   <si>
     <t xml:space="preserve">18</t>
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>1.539</v>
+        <v>1.529</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>1.709</v>
+        <v>1.699</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -610,7 +610,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>1.709</v>
+        <v>1.704</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -712,13 +712,13 @@
         <v>33</v>
       </c>
       <c r="B12" t="n">
-        <v>1.729</v>
+        <v>1.719</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -726,13 +726,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="n">
         <v>1.729</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
@@ -749,10 +749,10 @@
         <v>1.729</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -760,16 +760,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>1.735</v>
+        <v>1.729</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -777,16 +777,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>1.739</v>
+        <v>1.729</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -794,36 +794,36 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="n">
-        <v>1.739</v>
+        <v>1.729</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="n">
-        <v>1.739</v>
+        <v>1.735</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -831,7 +831,7 @@
         <v>51</v>
       </c>
       <c r="B19" t="n">
-        <v>1.749</v>
+        <v>1.739</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>

--- a/informes/informe_madrid2.xlsx
+++ b/informes/informe_madrid2.xlsx
@@ -62,21 +62,21 @@
     <t xml:space="preserve">4</t>
   </si>
   <si>
+    <t xml:space="preserve">GALP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRA. N-VI km 21,700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
     <t xml:space="preserve">CARREFOUR</t>
   </si>
   <si>
     <t xml:space="preserve">CARRETERA MADRID-LA CORUÑA KM. 22</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GALP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTRA. N-VI km 21,700</t>
-  </si>
-  <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
@@ -116,61 +116,61 @@
     <t xml:space="preserve">11</t>
   </si>
   <si>
+    <t xml:space="preserve">REPSOL HUMANES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVENIDA LA INDUSTRIA, S/N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BP VALDONAIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRETERA AVD.DE LA INDUSTRIA KM. 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BP HUMANES - EL MOLINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVENIDA DE LAS FLORES, 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
     <t xml:space="preserve">CL MADRID, 52</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BP VALDONAIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRETERA AVD.DE LA INDUSTRIA KM. 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BP HUMANES - EL MOLINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVENIDA DE LAS FLORES, 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REPSOL HUMANES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVENIDA LA INDUSTRIA, S/N</t>
-  </si>
-  <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
+    <t xml:space="preserve">BP LAS ROZAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL LAS CRUCES  S/N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR A-6, 20,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRETERA M-405 KM. 5,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
     <t xml:space="preserve">CARRETERA AVENIDA  DE LA INDUSTRIA , 46 KM. 1,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BP LAS ROZAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL LAS CRUCES  S/N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRETERA M-405 KM. 5,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR A-6, 20,3</t>
   </si>
   <si>
     <t xml:space="preserve">19</t>
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>1.699</v>
+        <v>1.689</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -610,7 +610,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>1.704</v>
+        <v>1.699</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -712,13 +712,13 @@
         <v>33</v>
       </c>
       <c r="B12" t="n">
-        <v>1.719</v>
+        <v>1.729</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -726,16 +726,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
         <v>1.729</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -743,16 +743,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="n">
         <v>1.729</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -760,13 +760,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="n">
         <v>1.729</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>43</v>
@@ -783,24 +783,24 @@
         <v>1.729</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="n">
         <v>1.729</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
@@ -840,7 +840,7 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">

--- a/informes/informe_madrid2.xlsx
+++ b/informes/informe_madrid2.xlsx
@@ -80,97 +80,97 @@
     <t xml:space="preserve">6</t>
   </si>
   <si>
+    <t xml:space="preserve">REPSOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL MADRID, 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALLE COPENHAGUES/N, S/N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-6 km 25,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRA. M-505 km 5,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRETERA M-505 km 5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BP VALDONAIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRETERA AVD.DE LA INDUSTRIA KM. 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BP HUMANES - EL MOLINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVENIDA DE LAS FLORES, 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
     <t xml:space="preserve">CEPSA</t>
   </si>
   <si>
+    <t xml:space="preserve">CARRETERA M-405 KM. 5,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPSOL HUMANES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVENIDA LA INDUSTRIA, S/N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRETERA AVENIDA  DE LA INDUSTRIA , 46 KM. 1,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BP LAS ROZAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL LAS CRUCES  S/N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR A-6, 20,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
     <t xml:space="preserve">CARRETERA M-405 KM. 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REPSOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTRA. M-505 km 5,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRETERA M-505 km 5.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-6 km 25,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALLE COPENHAGUES/N, S/N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REPSOL HUMANES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVENIDA LA INDUSTRIA, S/N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BP VALDONAIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRETERA AVD.DE LA INDUSTRIA KM. 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BP HUMANES - EL MOLINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVENIDA DE LAS FLORES, 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL MADRID, 52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BP LAS ROZAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL LAS CRUCES  S/N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR A-6, 20,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRETERA M-405 KM. 5,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRETERA AVENIDA  DE LA INDUSTRIA , 46 KM. 1,1</t>
   </si>
   <si>
     <t xml:space="preserve">19</t>
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>1.529</v>
+        <v>1.519</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>1.689</v>
+        <v>1.679</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -627,7 +627,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="n">
-        <v>1.715</v>
+        <v>1.709</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -647,10 +647,10 @@
         <v>1.718</v>
       </c>
       <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -658,16 +658,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="n">
         <v>1.718</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -675,16 +675,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="n">
         <v>1.718</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -692,16 +692,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="n">
         <v>1.718</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -709,16 +709,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -726,16 +726,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -743,16 +743,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -760,13 +760,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="C15" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>43</v>
@@ -780,27 +780,27 @@
         <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>1.729</v>
+        <v>1.719</v>
       </c>
       <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
         <v>45</v>
       </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="C17" t="s">
         <v>47</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
@@ -814,7 +814,7 @@
         <v>49</v>
       </c>
       <c r="B18" t="n">
-        <v>1.735</v>
+        <v>1.719</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -823,7 +823,7 @@
         <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -831,10 +831,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="n">
-        <v>1.739</v>
+        <v>1.725</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>

--- a/informes/informe_madrid2.xlsx
+++ b/informes/informe_madrid2.xlsx
@@ -62,55 +62,79 @@
     <t xml:space="preserve">4</t>
   </si>
   <si>
+    <t xml:space="preserve">CARREFOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRETERA MADRID-LA CORUÑA KM. 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
     <t xml:space="preserve">GALP</t>
   </si>
   <si>
     <t xml:space="preserve">CTRA. N-VI km 21,700</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARREFOUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRETERA MADRID-LA CORUÑA KM. 22</t>
-  </si>
-  <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">REPSOL</t>
   </si>
   <si>
+    <t xml:space="preserve">CALLE COPENHAGUES/N, S/N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-6 km 25,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRA. M-505 km 5,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRETERA M-505 km 5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEPSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRETERA M-405 KM. 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPSOL HUMANES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVENIDA LA INDUSTRIA, S/N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRETERA M-405 KM. 5,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
     <t xml:space="preserve">CL MADRID, 52</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALLE COPENHAGUES/N, S/N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-6 km 25,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTRA. M-505 km 5,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRETERA M-505 km 5.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
+    <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">BP VALDONAIRE</t>
@@ -119,7 +143,7 @@
     <t xml:space="preserve">CARRETERA AVD.DE LA INDUSTRIA KM. 15</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">BP HUMANES - EL MOLINO</t>
@@ -128,49 +152,25 @@
     <t xml:space="preserve">AVENIDA DE LAS FLORES, 2</t>
   </si>
   <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEPSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRETERA M-405 KM. 5,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REPSOL HUMANES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVENIDA LA INDUSTRIA, S/N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
+    <t xml:space="preserve">16</t>
   </si>
   <si>
     <t xml:space="preserve">CARRETERA AVENIDA  DE LA INDUSTRIA , 46 KM. 1,1</t>
   </si>
   <si>
-    <t xml:space="preserve">16</t>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR A-6, 20,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
   </si>
   <si>
     <t xml:space="preserve">BP LAS ROZAS</t>
   </si>
   <si>
     <t xml:space="preserve">CL LAS CRUCES  S/N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR A-6, 20,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRETERA M-405 KM. 6</t>
   </si>
   <si>
     <t xml:space="preserve">19</t>
@@ -542,7 +542,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1.509</v>
+        <v>1.497</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>1.519</v>
+        <v>1.514</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>1.639</v>
+        <v>1.599</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>1.679</v>
+        <v>1.649</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -610,7 +610,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>1.699</v>
+        <v>1.669</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -627,7 +627,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="n">
-        <v>1.709</v>
+        <v>1.688</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -636,7 +636,7 @@
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -644,7 +644,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="n">
-        <v>1.718</v>
+        <v>1.688</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -661,7 +661,7 @@
         <v>26</v>
       </c>
       <c r="B9" t="n">
-        <v>1.718</v>
+        <v>1.688</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -678,7 +678,7 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>1.718</v>
+        <v>1.688</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -695,30 +695,30 @@
         <v>30</v>
       </c>
       <c r="B11" t="n">
-        <v>1.718</v>
+        <v>1.689</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="n">
-        <v>1.719</v>
+        <v>1.699</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -726,13 +726,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>1.719</v>
+        <v>1.699</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
@@ -746,13 +746,13 @@
         <v>38</v>
       </c>
       <c r="B14" t="n">
-        <v>1.719</v>
+        <v>1.699</v>
       </c>
       <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -760,16 +760,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="n">
-        <v>1.719</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -777,13 +777,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C16" t="s">
         <v>44</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.719</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
@@ -797,30 +797,30 @@
         <v>46</v>
       </c>
       <c r="B17" t="n">
-        <v>1.719</v>
+        <v>1.709</v>
       </c>
       <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" t="n">
-        <v>1.719</v>
+        <v>1.709</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -828,19 +828,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C19" t="s">
         <v>51</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1.725</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -848,7 +848,7 @@
         <v>53</v>
       </c>
       <c r="B20" t="n">
-        <v>1.924</v>
+        <v>1.861</v>
       </c>
       <c r="C20" t="s">
         <v>54</v>
